--- a/Profit.xlsx
+++ b/Profit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxy-macbook/Desktop/GP-Food/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxy-macbook/Desktop/gp-food.github.io-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="2500" yWindow="3020" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>GP-Food</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Paypal </t>
+  </si>
+  <si>
+    <t>Bigmac</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +456,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="2">
-        <f>D2*0.966-2.6-C2</f>
+        <f>D2-(D2*3.4%)-2.6-C2</f>
         <v>1.8900000000000006</v>
       </c>
       <c r="F2" s="3"/>
@@ -474,7 +477,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E13" si="0">D3*0.966-2.6-C3</f>
+        <f t="shared" ref="E3:E13" si="0">D3-(D3*3.4%)-2.6-C3</f>
         <v>1.8900000000000006</v>
       </c>
       <c r="F3" s="3"/>
@@ -518,16 +521,18 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="2">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>1.8900000000000006</v>
+        <v>2.0060000000000002</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>

--- a/Profit.xlsx
+++ b/Profit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="3020" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,14 +525,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>2.0060000000000002</v>
+        <v>2.1759999999999948</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>

--- a/Profit.xlsx
+++ b/Profit.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,14 +507,14 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>2.0600000000000005</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -528,11 +528,11 @@
         <v>30</v>
       </c>
       <c r="D6" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>2.1759999999999948</v>
+        <v>6.0399999999999991</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
